--- a/src/main/resources/template/excel/export/onlineOrderGoodsDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/onlineOrderGoodsDetailExportTemplate.xlsx
@@ -62,18 +62,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(I3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>货号</t>
   </si>
   <si>
@@ -152,15 +140,27 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(F3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(K3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>线上订单商品详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F3:F3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I3:I3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(K3:K3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -168,8 +168,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -271,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -296,6 +297,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -626,7 +633,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -641,72 +648,72 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -717,21 +724,21 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>3</v>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>27</v>
+      <c r="K4" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +750,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C5:C1048576 B3"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>